--- a/Practice/myobs.xlsx
+++ b/Practice/myobs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -81,16 +81,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="true"/>
-    <col min="2" max="2" width="16.34765625" customWidth="true"/>
-    <col min="3" max="3" width="16.34765625" customWidth="true"/>
-    <col min="4" max="4" width="16.34765625" customWidth="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="16.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="16.34765625" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
     <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="8" max="8" width="15.7109375" customWidth="true"/>
   </cols>

--- a/Practice/myobs.xlsx
+++ b/Practice/myobs.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
   <si>
     <t>eff_sample</t>
   </si>
@@ -97,28 +121,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
